--- a/VTU marks scraping using selenium/2021 VTU results.xlsx
+++ b/VTU marks scraping using selenium/2021 VTU results.xlsx
@@ -199,82 +199,82 @@
     <t>NE (0)</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>47</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>NE (0+0)</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>42</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>67</t>
+    <t>78</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
   <si>
     <t>64</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>NE (0+0)</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>69</t>
   </si>
   <si>
     <t>63</t>
@@ -915,19 +915,19 @@
         <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
         <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
         <v>56</v>
@@ -939,7 +939,7 @@
         <v>65</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s">
         <v>56</v>
@@ -951,7 +951,7 @@
         <v>45</v>
       </c>
       <c r="V4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s">
         <v>56</v>
@@ -969,7 +969,7 @@
         <v>56</v>
       </c>
       <c r="AB4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC4" t="s">
         <v>59</v>
@@ -1022,34 +1022,34 @@
         <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
         <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
         <v>66</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
         <v>60</v>
@@ -1058,10 +1058,10 @@
         <v>66</v>
       </c>
       <c r="V5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
         <v>60</v>
@@ -1070,10 +1070,10 @@
         <v>66</v>
       </c>
       <c r="Z5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s">
         <v>60</v>
@@ -1082,10 +1082,10 @@
         <v>66</v>
       </c>
       <c r="AD5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s">
         <v>60</v>
@@ -1094,10 +1094,10 @@
         <v>66</v>
       </c>
       <c r="AH5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1126,22 +1126,22 @@
         <v>61</v>
       </c>
       <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
         <v>40</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
       </c>
       <c r="O6" t="s">
         <v>56</v>
@@ -1177,7 +1177,7 @@
         <v>89</v>
       </c>
       <c r="Z6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="s">
         <v>56</v>
@@ -1186,7 +1186,7 @@
         <v>52</v>
       </c>
       <c r="AC6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s">
         <v>110</v>
@@ -1195,7 +1195,7 @@
         <v>56</v>
       </c>
       <c r="AF6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG6" t="s">
         <v>35</v>
@@ -1230,25 +1230,25 @@
         <v>56</v>
       </c>
       <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
@@ -1278,25 +1278,25 @@
         <v>56</v>
       </c>
       <c r="X7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="Z7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s">
         <v>56</v>
       </c>
       <c r="AB7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s">
         <v>56</v>
@@ -1305,10 +1305,10 @@
         <v>55</v>
       </c>
       <c r="AG7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s">
         <v>56</v>
@@ -1337,13 +1337,13 @@
         <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
         <v>56</v>
@@ -1352,10 +1352,10 @@
         <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
         <v>56</v>
@@ -1403,19 +1403,19 @@
         <v>108</v>
       </c>
       <c r="AD8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE8" t="s">
         <v>56</v>
       </c>
       <c r="AF8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="s">
         <v>43</v>
       </c>
       <c r="AH8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI8" t="s">
         <v>56</v>
@@ -1444,34 +1444,34 @@
         <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
         <v>56</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="R9" t="s">
         <v>96</v>
@@ -1483,7 +1483,7 @@
         <v>37</v>
       </c>
       <c r="U9" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="V9" t="s">
         <v>54</v>
@@ -1492,10 +1492,10 @@
         <v>56</v>
       </c>
       <c r="X9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s">
         <v>105</v>
@@ -1504,7 +1504,7 @@
         <v>56</v>
       </c>
       <c r="AB9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s">
         <v>37</v>
@@ -1551,25 +1551,25 @@
         <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="M10" t="s">
         <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
         <v>56</v>
@@ -1602,7 +1602,7 @@
         <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="Z10" t="s">
         <v>101</v>
@@ -1611,7 +1611,7 @@
         <v>56</v>
       </c>
       <c r="AB10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC10" t="s">
         <v>65</v>
@@ -1626,10 +1626,10 @@
         <v>38</v>
       </c>
       <c r="AG10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="s">
         <v>56</v>
@@ -1658,19 +1658,19 @@
         <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -1700,7 +1700,7 @@
         <v>48</v>
       </c>
       <c r="V11" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="W11" t="s">
         <v>58</v>
@@ -1709,7 +1709,7 @@
         <v>102</v>
       </c>
       <c r="Y11" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="Z11" t="s">
         <v>106</v>
@@ -1733,7 +1733,7 @@
         <v>36</v>
       </c>
       <c r="AG11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH11" t="s">
         <v>106</v>
@@ -1765,28 +1765,28 @@
         <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P12" t="s">
         <v>89</v>
@@ -1807,7 +1807,7 @@
         <v>99</v>
       </c>
       <c r="V12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W12" t="s">
         <v>58</v>
@@ -1843,7 +1843,7 @@
         <v>46</v>
       </c>
       <c r="AH12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI12" t="s">
         <v>56</v>
@@ -1872,25 +1872,25 @@
         <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
         <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
         <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="M13" t="s">
         <v>40</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="O13" t="s">
         <v>56</v>
@@ -1899,7 +1899,7 @@
         <v>90</v>
       </c>
       <c r="Q13" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="R13" t="s">
         <v>97</v>
@@ -1935,10 +1935,10 @@
         <v>102</v>
       </c>
       <c r="AC13" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AD13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE13" t="s">
         <v>56</v>
@@ -1947,7 +1947,7 @@
         <v>102</v>
       </c>
       <c r="AG13" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH13" t="s">
         <v>116</v>

--- a/VTU marks scraping using selenium/2021 VTU results.xlsx
+++ b/VTU marks scraping using selenium/2021 VTU results.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ME" sheetId="1" r:id="rId1"/>
+    <sheet name="MT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="125">
   <si>
     <t>USN</t>
   </si>
@@ -25,16 +25,16 @@
     <t>TRANSFORM CALCULUS, FOURIER SERIES AND NUMERICAL TECHNIQUES</t>
   </si>
   <si>
-    <t>METAL CASTING, FORMING AND JOINING PROCESSES</t>
-  </si>
-  <si>
-    <t>FUNDAMENTALS OF VIRTUAL REALITY</t>
-  </si>
-  <si>
-    <t>MATERIAL SCIENCE AND ENGINEERING</t>
-  </si>
-  <si>
-    <t>THERMODYNAMICS</t>
+    <t>ANALOG AND DIGITAL ELECTRONICS</t>
+  </si>
+  <si>
+    <t>MATERIAL SCIENCE AND MANUFACTURING TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>ROBOTICS ECOSYSTEM</t>
+  </si>
+  <si>
+    <t>MECHANICS OF SOLIDS AND FLUIDS</t>
   </si>
   <si>
     <t>MACHINE DRAWING AND GD &amp; T</t>
@@ -43,7 +43,7 @@
     <t>SOCIAL CONNECT AND RESPONSIBILITY</t>
   </si>
   <si>
-    <t>SAMSKRUTHIKA KANNADA</t>
+    <t>BALAKE KANNADA</t>
   </si>
   <si>
     <t>Internal Marks</t>
@@ -58,313 +58,337 @@
     <t>Result</t>
   </si>
   <si>
-    <t>1AM21ME001</t>
-  </si>
-  <si>
-    <t>1AM21ME002</t>
-  </si>
-  <si>
-    <t>1AM21ME003</t>
-  </si>
-  <si>
-    <t>1AM21ME004</t>
-  </si>
-  <si>
-    <t>1AM21ME006</t>
-  </si>
-  <si>
-    <t>1AM21ME007</t>
-  </si>
-  <si>
-    <t>1AM21ME008</t>
-  </si>
-  <si>
-    <t>1AM21ME009</t>
-  </si>
-  <si>
-    <t>1AM21ME010</t>
-  </si>
-  <si>
-    <t>1AM21ME011</t>
-  </si>
-  <si>
-    <t>AMITH KUMAR N RATHOD</t>
-  </si>
-  <si>
-    <t>BASAVARAJ T</t>
-  </si>
-  <si>
-    <t>CHETHAN S N</t>
-  </si>
-  <si>
-    <t>HEMANTH V</t>
-  </si>
-  <si>
-    <t>MAHESH GOWDA S</t>
-  </si>
-  <si>
-    <t>PRATHAP KUMAR R</t>
-  </si>
-  <si>
-    <t>RAKESH M N</t>
-  </si>
-  <si>
-    <t>S SAI CHARAN</t>
-  </si>
-  <si>
-    <t>TEJA C</t>
-  </si>
-  <si>
-    <t>VINAY C B</t>
+    <t>1AM21MT001</t>
+  </si>
+  <si>
+    <t>1AM21MT002</t>
+  </si>
+  <si>
+    <t>1AM21MT003</t>
+  </si>
+  <si>
+    <t>1AM21MT004</t>
+  </si>
+  <si>
+    <t>1AM21MT005</t>
+  </si>
+  <si>
+    <t>1AM21MT006</t>
+  </si>
+  <si>
+    <t>1AM21MT007</t>
+  </si>
+  <si>
+    <t>1AM21MT008</t>
+  </si>
+  <si>
+    <t>1AM21MT009</t>
+  </si>
+  <si>
+    <t>1AM21MT010</t>
+  </si>
+  <si>
+    <t>1AM21MT011</t>
+  </si>
+  <si>
+    <t>1AM21MT012</t>
+  </si>
+  <si>
+    <t>1AM21MT013</t>
+  </si>
+  <si>
+    <t>ABHISHEK BHASKAR ARCHARYA</t>
+  </si>
+  <si>
+    <t>BANUJA SADUSSVE CHELLUBOINA</t>
+  </si>
+  <si>
+    <t>D M VISHAL</t>
+  </si>
+  <si>
+    <t>DIWAKAR A</t>
+  </si>
+  <si>
+    <t>HRIDAY ACHARYA</t>
+  </si>
+  <si>
+    <t>INDRESH S</t>
+  </si>
+  <si>
+    <t>M SAHIL KHAN</t>
+  </si>
+  <si>
+    <t>MOHAMMED ARSHAD S</t>
+  </si>
+  <si>
+    <t>NANDESH R K</t>
+  </si>
+  <si>
+    <t>NIKHIL B</t>
+  </si>
+  <si>
+    <t>RAKSHITH S</t>
+  </si>
+  <si>
+    <t>SATHVIK N</t>
+  </si>
+  <si>
+    <t>V GNANA SURYA</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>22</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>NE (0)</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>NE (0)</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>56</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
   <si>
     <t>82</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>NE (0+0)</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>89</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
   <si>
     <t>54</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>62</t>
   </si>
 </sst>
 </file>
@@ -722,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,103 +918,103 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" t="s">
-        <v>59</v>
-      </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="R4" t="s">
         <v>70</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Z4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="AA4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AB4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AC4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AD4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AE4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AF4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1001,103 +1025,103 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" t="s">
-        <v>66</v>
-      </c>
-      <c r="V5" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>60</v>
-      </c>
       <c r="AC5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AD5" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="AE5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AG5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="AH5" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="AI5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1108,103 +1132,103 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s">
         <v>98</v>
       </c>
       <c r="V6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="X6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AB6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AC6" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AE6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AF6" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="AH6" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="AI6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1215,103 +1239,103 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="V7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Z7" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AA7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AB7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AE7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AF7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AI7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1322,103 +1346,103 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" t="s">
+        <v>106</v>
+      </c>
+      <c r="U8" t="s">
+        <v>107</v>
+      </c>
+      <c r="V8" t="s">
+        <v>110</v>
+      </c>
+      <c r="W8" t="s">
+        <v>111</v>
+      </c>
+      <c r="X8" t="s">
         <v>74</v>
       </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="Y8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" t="s">
-        <v>58</v>
-      </c>
-      <c r="T8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8" t="s">
-        <v>58</v>
-      </c>
-      <c r="X8" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>84</v>
-      </c>
       <c r="AE8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AF8" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AG8" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="AH8" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="AI8" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1429,103 +1453,103 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" t="s">
-        <v>81</v>
-      </c>
       <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA9" t="s">
         <v>67</v>
       </c>
-      <c r="R9" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>56</v>
-      </c>
       <c r="AB9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AE9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AF9" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="AH9" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AI9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1536,103 +1560,103 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>92</v>
-      </c>
-      <c r="R10" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" t="s">
-        <v>56</v>
-      </c>
-      <c r="T10" t="s">
-        <v>90</v>
-      </c>
       <c r="U10" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="V10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="W10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="X10" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="Z10" t="s">
         <v>101</v>
       </c>
       <c r="AA10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AB10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="AD10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AE10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AF10" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AH10" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1643,103 +1667,103 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
         <v>77</v>
       </c>
-      <c r="K11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" t="s">
+        <v>105</v>
+      </c>
+      <c r="W11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="s">
         <v>82</v>
       </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" t="s">
-        <v>56</v>
-      </c>
-      <c r="T11" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>111</v>
-      </c>
       <c r="AE11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="AG11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AH11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AI11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1750,103 +1774,103 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="Q12" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s">
         <v>59</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="T12" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="V12" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="X12" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="Y12" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="AA12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AB12" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="AD12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AE12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AF12" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1857,103 +1881,424 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" t="s">
+        <v>102</v>
+      </c>
+      <c r="S13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>105</v>
+      </c>
+      <c r="W13" t="s">
+        <v>66</v>
+      </c>
+      <c r="X13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V14" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" t="s">
+        <v>67</v>
+      </c>
+      <c r="X14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" t="s">
+        <v>104</v>
+      </c>
+      <c r="S15" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U15" t="s">
+        <v>88</v>
+      </c>
+      <c r="V15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" t="s">
+        <v>66</v>
+      </c>
+      <c r="X15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" t="s">
+        <v>105</v>
+      </c>
+      <c r="S16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" t="s">
+        <v>97</v>
+      </c>
+      <c r="U16" t="s">
+        <v>108</v>
+      </c>
+      <c r="V16" t="s">
+        <v>104</v>
+      </c>
+      <c r="W16" t="s">
+        <v>66</v>
+      </c>
+      <c r="X16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG16" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13" t="s">
-        <v>97</v>
-      </c>
-      <c r="S13" t="s">
-        <v>56</v>
-      </c>
-      <c r="T13" t="s">
-        <v>35</v>
-      </c>
-      <c r="U13" t="s">
-        <v>98</v>
-      </c>
-      <c r="V13" t="s">
-        <v>89</v>
-      </c>
-      <c r="W13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>56</v>
+      <c r="AH16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
